--- a/2019RobotPartsList.xlsx
+++ b/2019RobotPartsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtobr\Source\Repos\FRC4028\2019RobotPartsList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DBC955-048E-4423-A39A-B40E677582D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F24985-4EFF-4DF3-96AC-4C7EAC9E6B7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="8985" xr2:uid="{869CF52D-C0D3-4651-A4D1-5EB52388365B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="149">
   <si>
     <t>Subsystem/Part</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>backorder</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Thermal Stickers</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -955,13 +961,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -972,7 +978,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,7 +990,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1009,11 +1015,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1024,11 +1030,11 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,7 +1046,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1069,16 +1075,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1092,16 +1098,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1115,16 +1121,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1132,11 +1138,11 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1150,16 +1156,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -1175,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1496,10 +1502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4265,247 +4271,332 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B89" s="28"/>
-      <c r="H89" s="21"/>
-      <c r="L89" s="21"/>
-    </row>
-    <row r="90" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="28"/>
-    </row>
-    <row r="91" spans="1:16" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="1"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="6"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="16"/>
+    </row>
+    <row r="90" spans="1:16" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="26">
+        <v>14</v>
+      </c>
+      <c r="B90" s="27"/>
+      <c r="C90" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="6"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="16"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A91" s="25">
+        <v>14.01</v>
+      </c>
       <c r="B91" s="28"/>
-      <c r="G91" t="s">
-        <v>69</v>
-      </c>
-      <c r="H91" s="22">
-        <f>SUM(H2:H89)</f>
-        <v>3091.9789999999989</v>
-      </c>
-      <c r="L91" s="22">
-        <f>SUM(L2:L89)</f>
-        <v>893.16000000000008</v>
+      <c r="C91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="10">
+        <f>17/10</f>
+        <v>1.7</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91" s="16">
+        <f>F91*G91</f>
+        <v>3.4</v>
+      </c>
+      <c r="I91" s="19">
+        <f>G91*2</f>
+        <v>4</v>
+      </c>
+      <c r="J91" s="55">
+        <v>0</v>
+      </c>
+      <c r="K91" s="20">
+        <f t="shared" ref="K91" si="79">IF(I91&gt;J91,I91-J91,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L91" s="16">
+        <f>K91*F91</f>
+        <v>6.8</v>
+      </c>
+      <c r="N91" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="P91" s="111" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B92" s="28"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="C92" s="1"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="6"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="16"/>
+    </row>
+    <row r="93" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B93" s="28"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H93" s="21"/>
+      <c r="L93" s="21"/>
+    </row>
+    <row r="94" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:16" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="28"/>
+      <c r="G95" t="s">
+        <v>69</v>
+      </c>
+      <c r="H95" s="22">
+        <f>SUM(H2:H93)</f>
+        <v>3095.378999999999</v>
+      </c>
+      <c r="L95" s="22">
+        <f>SUM(L2:L93)</f>
+        <v>899.96</v>
+      </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B96" s="28"/>
     </row>
-    <row r="97" spans="1:12" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="29" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B97" s="28"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B98" s="28"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B99" s="28"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B100" s="28"/>
+    </row>
+    <row r="101" spans="1:12" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B97" s="28"/>
-      <c r="C97" t="s">
+      <c r="B101" s="28"/>
+      <c r="C101" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A98" s="30"/>
-      <c r="B98" s="31" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A102" s="30"/>
+      <c r="B102" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C102" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="32">
-        <f>SUMIF($B2:$B89,$B98, G2:G89)</f>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="32">
+        <f>SUMIF($B2:$B93,$B102, G2:G93)</f>
         <v>7</v>
       </c>
-      <c r="H98" s="34">
-        <f>SUMIF($B2:$B89,$B98, H2:H89)</f>
+      <c r="H102" s="34">
+        <f>SUMIF($B2:$B93,$B102, H2:H93)</f>
         <v>630</v>
       </c>
-      <c r="I98" s="32">
-        <f>SUMIF($B2:$B89,$B98, I2:I89)</f>
+      <c r="I102" s="32">
+        <f>SUMIF($B2:$B93,$B102, I2:I93)</f>
         <v>14</v>
       </c>
-      <c r="J98" s="32">
+      <c r="J102" s="32">
         <v>18</v>
       </c>
-      <c r="K98" s="114">
-        <f t="shared" ref="K98:K100" si="79">IF(I98&gt;J98,I98-J98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L98" s="35">
-        <f>SUMIF($B2:$B89,$B98, L2:L89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A99" s="36"/>
-      <c r="B99" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="39">
-        <f>SUMIF($B3:$B90,$B99, G3:G90)</f>
-        <v>2</v>
-      </c>
-      <c r="H99" s="41">
-        <f>SUMIF($B3:$B90,$B99, H3:H90)</f>
-        <v>100</v>
-      </c>
-      <c r="I99" s="39">
-        <f>SUMIF($B3:$B90,$B99, I3:I90)</f>
-        <v>4</v>
-      </c>
-      <c r="J99" s="39">
-        <v>5</v>
-      </c>
-      <c r="K99" s="20">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L99" s="42">
-        <f>SUMIF($B3:$B90,$B99, L3:L90)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="39">
-        <f>SUMIF($B4:$B91,$B100, G4:G91)</f>
-        <v>13</v>
-      </c>
-      <c r="H100" s="41">
-        <f>SUMIF($B4:$B91,$B100, H4:H91)</f>
-        <v>51.973999999999997</v>
-      </c>
-      <c r="I100" s="39">
-        <f>SUMIF($B4:$B91,$B100, I4:I91)</f>
-        <v>26</v>
-      </c>
-      <c r="J100" s="39">
-        <v>27</v>
-      </c>
-      <c r="K100" s="20">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="42">
-        <f>SUMIF($B4:$B91,$B100, L4:L91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A101" s="36"/>
-      <c r="B101" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="39">
-        <f>SUMIF($B5:$B92,$B101, G5:G92)</f>
-        <v>1</v>
-      </c>
-      <c r="H101" s="41">
-        <f>SUMIF($B5:$B92,$B101, H5:H92)</f>
-        <v>18</v>
-      </c>
-      <c r="I101" s="39">
-        <f>SUMIF($B5:$B92,$B101, I5:I92)</f>
-        <v>2</v>
-      </c>
-      <c r="J101" s="39">
-        <v>2</v>
-      </c>
-      <c r="K101" s="20">
-        <f t="shared" ref="K101" si="80">IF(I101&gt;J101,I101-J101,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="42">
-        <f>SUMIF($B5:$B92,$B101, L5:L92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A102" s="36"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="39"/>
-      <c r="K102" s="39"/>
-      <c r="L102" s="44"/>
+      <c r="K102" s="114">
+        <f t="shared" ref="K102:K104" si="80">IF(I102&gt;J102,I102-J102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="35">
+        <f>SUMIF($B2:$B93,$B102, L2:L93)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="36"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="39"/>
+      <c r="B103" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>56</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
       <c r="F103" s="40"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="44"/>
+      <c r="G103" s="39">
+        <f>SUMIF($B3:$B94,$B103, G3:G94)</f>
+        <v>2</v>
+      </c>
+      <c r="H103" s="41">
+        <f>SUMIF($B3:$B94,$B103, H3:H94)</f>
+        <v>100</v>
+      </c>
+      <c r="I103" s="39">
+        <f>SUMIF($B3:$B94,$B103, I3:I94)</f>
+        <v>4</v>
+      </c>
+      <c r="J103" s="39">
+        <v>5</v>
+      </c>
+      <c r="K103" s="20">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="42">
+        <f>SUMIF($B3:$B94,$B103, L3:L94)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="36"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="39"/>
+      <c r="B104" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>95</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
       <c r="F104" s="40"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="44"/>
-    </row>
-    <row r="105" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="45"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="49"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="47"/>
-      <c r="L105" s="50"/>
+      <c r="G104" s="39">
+        <f>SUMIF($B4:$B95,$B104, G4:G95)</f>
+        <v>13</v>
+      </c>
+      <c r="H104" s="41">
+        <f>SUMIF($B4:$B95,$B104, H4:H95)</f>
+        <v>51.973999999999997</v>
+      </c>
+      <c r="I104" s="39">
+        <f>SUMIF($B4:$B95,$B104, I4:I95)</f>
+        <v>26</v>
+      </c>
+      <c r="J104" s="39">
+        <v>27</v>
+      </c>
+      <c r="K104" s="20">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="42">
+        <f>SUMIF($B4:$B95,$B104, L4:L95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A105" s="36"/>
+      <c r="B105" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="39">
+        <f>SUMIF($B5:$B96,$B105, G5:G96)</f>
+        <v>1</v>
+      </c>
+      <c r="H105" s="41">
+        <f>SUMIF($B5:$B96,$B105, H5:H96)</f>
+        <v>18</v>
+      </c>
+      <c r="I105" s="39">
+        <f>SUMIF($B5:$B96,$B105, I5:I96)</f>
+        <v>2</v>
+      </c>
+      <c r="J105" s="39">
+        <v>2</v>
+      </c>
+      <c r="K105" s="20">
+        <f t="shared" ref="K105" si="81">IF(I105&gt;J105,I105-J105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="42">
+        <f>SUMIF($B5:$B96,$B105, L5:L96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A106" s="36"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="44"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A107" s="36"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="44"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A108" s="36"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="44"/>
+    </row>
+    <row r="109" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A109" s="45"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="47"/>
+      <c r="L109" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4558,9 +4649,10 @@
     <hyperlink ref="E18" r:id="rId47" xr:uid="{7D9F61DF-6AA9-415E-BB7B-8DDC01880E9E}"/>
     <hyperlink ref="E17" r:id="rId48" xr:uid="{D161D302-EFD7-4BED-B981-98AB4656C754}"/>
     <hyperlink ref="E19" r:id="rId49" xr:uid="{60E22AF2-4395-43BE-9F81-8A414FD679A6}"/>
+    <hyperlink ref="E91" r:id="rId50" xr:uid="{29D3E711-F3BA-460F-89C7-3A7EF0E60001}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="40" orientation="portrait" r:id="rId50"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId51"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4568,7 +4660,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B5 B32:B34 B84:B88 B46:B47 B53:B56 B98:B101 B71 B8:B29 B78:B82 B37:B42</xm:sqref>
+          <xm:sqref>B3:B5 B32:B34 B37:B42 B46:B47 B53:B56 B102:B105 B71 B8:B29 B78:B82 B84:B89 B91:B92</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
